--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_230.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_230.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,538 +488,558 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:00:55.680000', '0:01:06.100000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(70.98, 87.2)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(16.04, 21.0)]</t>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(97.88, 108.98), (47.58, 50.04)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(28.8, 36.86), (84.0, 90.84)]</t>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:58.440000', '0:02:02')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.54, 13.98)]</t>
+          <t>[('0:00:58.680000', '0:01:20.420000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07728085867620751</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(23.02, 32.58)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[('0:01:37.720000', '0:01:54.060000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:10.940000', '0:00:16.320000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1833333333333333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_205</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1177257525083612</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['Eb', 'F', 'Bb']]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(29.965374, 34.307505)]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(44.917324, 48.272607)]</t>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:00:41.300000', '0:00:43.480000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.1168269230769231</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A#:maj/D', 'F:maj/C', 'G:min7/A#'], ['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[('0:01:09.060000', '0:01:12.500000'), ('0:00:17.340000', '0:00:24.400000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:14.565283', '0:00:18.936988'), ('0:00:13.079206', '0:00:17.500916')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09855072463768116</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:dim7', 'C', 'F']]</t>
-        </is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.19375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C:dim7', 'C#:maj', 'F#:maj/A#']]</t>
+          <t>[['D:7', 'G:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(17.769637, 22.996281)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(18.14, 21.44)]</t>
+          <t>[('0:01:00.854263', '0:01:06.566371')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>[('0:00:45.760000', '0:00:53.560000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj/F']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(13.52, 51.46)]</t>
+          <t>[('0:01:30.140000', '0:01:38.780000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:36.740000', '0:01:48.820000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -1023,182 +1048,128 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(112.24, 117.7)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(119.32, 124.32)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min', 'F#:min', 'G#:min/B', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:min', 'C:dim7', 'C#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.5, 23.02)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.36, 24.16)]</t>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(113.14, 114.88)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(66.92, 84.54)]</t>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_115</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.9, 26.98)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.16, 8.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
